--- a/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="581">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1717,9 +1717,6 @@
   </si>
   <si>
     <t>CPE_vrf_Ipv6</t>
-  </si>
-  <si>
-    <t>241</t>
   </si>
   <si>
     <t>INJ (Injune)</t>
@@ -2215,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="ND2" sqref="ND2"/>
+    <sheetView tabSelected="1" topLeftCell="IT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="IY2" sqref="IY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3792,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>52</v>
@@ -3828,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>49</v>
@@ -3936,7 +3933,7 @@
         <v>49</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>49</v>
@@ -4494,13 +4491,13 @@
         <v>351</v>
       </c>
       <c r="IW2" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="IX2" s="23" t="s">
         <v>442</v>
       </c>
       <c r="IY2" s="23" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
       <c r="IZ2" s="14" t="s">
         <v>40</v>
@@ -4524,7 +4521,7 @@
         <v>477</v>
       </c>
       <c r="JG2" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="JH2" s="15" t="s">
         <v>49</v>
@@ -4698,7 +4695,7 @@
         <v>442</v>
       </c>
       <c r="LM2" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="LN2" s="14" t="s">
         <v>40</v>
@@ -4722,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="LU2" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="LV2" s="14" t="s">
         <v>41</v>
@@ -4749,13 +4746,13 @@
         <v>49</v>
       </c>
       <c r="MD2" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="ME2" s="1" t="s">
         <v>488</v>
       </c>
       <c r="MF2" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="MG2" s="1" t="s">
         <v>489</v>
@@ -4785,13 +4782,13 @@
         <v>49</v>
       </c>
       <c r="MP2" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="MQ2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="MR2" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="MS2" s="7" t="s">
         <v>4</v>
@@ -4821,10 +4818,10 @@
         <v>49</v>
       </c>
       <c r="NB2" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="NC2" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="ND2" s="1" t="s">
         <v>40</v>
@@ -4833,7 +4830,7 @@
         <v>488</v>
       </c>
       <c r="NF2" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="NG2" s="1" t="s">
         <v>489</v>
@@ -5373,17 +5370,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -1734,9 +1734,6 @@
     <t>View Interface_MAS_PE table --&gt; interface adress range value earlier display as "Interface Address range + Interface address range IPV6"</t>
   </si>
   <si>
-    <t>Ox84</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -1765,6 +1762,9 @@
   </si>
   <si>
     <t>Cr89</t>
+  </si>
+  <si>
+    <t>Ie3789</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2213,7 @@
   <dimension ref="A1:OG2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="IT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="IY2" sqref="IY2"/>
+      <selection activeCell="IW3" sqref="IW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3789,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>52</v>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>49</v>
@@ -3933,7 +3933,7 @@
         <v>49</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>351</v>
       </c>
       <c r="IW2" s="14" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="IX2" s="23" t="s">
         <v>442</v>
@@ -4521,7 +4521,7 @@
         <v>477</v>
       </c>
       <c r="JG2" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="JH2" s="15" t="s">
         <v>49</v>
@@ -4695,7 +4695,7 @@
         <v>442</v>
       </c>
       <c r="LM2" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="LN2" s="14" t="s">
         <v>40</v>
@@ -4719,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="LU2" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="LV2" s="14" t="s">
         <v>41</v>
@@ -4746,13 +4746,13 @@
         <v>49</v>
       </c>
       <c r="MD2" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="ME2" s="1" t="s">
         <v>488</v>
       </c>
       <c r="MF2" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="MG2" s="1" t="s">
         <v>489</v>
@@ -4818,7 +4818,7 @@
         <v>49</v>
       </c>
       <c r="NB2" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="NC2" s="7" t="s">
         <v>567</v>
@@ -4830,7 +4830,7 @@
         <v>488</v>
       </c>
       <c r="NF2" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="NG2" s="1" t="s">
         <v>489</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject_demoBranch/src/com/saksoft/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -1746,12 +1746,6 @@
     <t>wholeSale00486</t>
   </si>
   <si>
-    <t>SiVA_A45</t>
-  </si>
-  <si>
-    <t>EE37</t>
-  </si>
-  <si>
     <t>255.255.255.255/255.255.255.255</t>
   </si>
   <si>
@@ -1765,6 +1759,12 @@
   </si>
   <si>
     <t>Ie3789</t>
+  </si>
+  <si>
+    <t>SiVA_A47</t>
+  </si>
+  <si>
+    <t>EE39</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="IW3" sqref="IW3"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>49</v>
@@ -3933,7 +3933,7 @@
         <v>49</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>49</v>
@@ -4491,7 +4491,7 @@
         <v>351</v>
       </c>
       <c r="IW2" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="IX2" s="23" t="s">
         <v>442</v>
@@ -4695,7 +4695,7 @@
         <v>442</v>
       </c>
       <c r="LM2" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="LN2" s="14" t="s">
         <v>40</v>
@@ -4719,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="LU2" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="LV2" s="14" t="s">
         <v>41</v>
@@ -4746,7 +4746,7 @@
         <v>49</v>
       </c>
       <c r="MD2" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="ME2" s="1" t="s">
         <v>488</v>
@@ -4818,7 +4818,7 @@
         <v>49</v>
       </c>
       <c r="NB2" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="NC2" s="7" t="s">
         <v>567</v>
